--- a/Arch.xlsx
+++ b/Arch.xlsx
@@ -148,15 +148,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="992" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="992" min="1" style="1" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="993" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -222,10 +222,10 @@
         <v>64</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>2</v>
@@ -376,14 +376,14 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
         <f aca="false">ROUNDDOWN((B7+2*D7-(C7-1)-1)/E7+1,0)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="0"/>
       <c r="I7" s="1" t="n">
@@ -403,32 +403,6 @@
         <f aca="false">(I7-1)*L7-2*K7+J7</f>
         <v>495</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="1" t="n">
-        <f aca="false">F7</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <f aca="false">ROUNDDOWN((B8+2*D8-(C8-1)-1)/E8+1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Arch.xlsx
+++ b/Arch.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="effec_rec_field" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
   <si>
     <t xml:space="preserve">D</t>
   </si>
@@ -47,6 +48,48 @@
   </si>
   <si>
     <t xml:space="preserve">out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effective receptive field size:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://medium.com/mlreview/a-guide-to-receptive-field-arithmetic-for-convolutional-neural-networks-e0f514068807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F4_S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F24</t>
   </si>
 </sst>
 </file>
@@ -56,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -78,6 +121,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,12 +173,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -150,14 +205,14 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="992" min="1" style="1" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="1025" min="993" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="992" min="1" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="993" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,4 +468,1234 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:O37"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R41" activeCellId="0" sqref="R41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B3+2*D3-F3*(C3-1)-1)/E3 + 1,0)</f>
+        <v>32</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <f aca="false">H3+(C3-1)*I3</f>
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <f aca="false">I3*E3</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <f aca="false">J3+((C3-1)/2-D3)*I3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="n">
+        <f aca="false">G3</f>
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B4+2*D4-F4*(C4-1)-1)/E4 + 1,0)</f>
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">K3</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <f aca="false">L3</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <f aca="false">M3</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <f aca="false">H4+(C4-1)*I4</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="1" t="n">
+        <f aca="false">I4*E4</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <f aca="false">J4+((C4-1)/2-D4)*I4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <f aca="false">G4</f>
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B5+2*D5-F5*(C5-1)-1)/E5 + 1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">K4</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <f aca="false">L4</f>
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <f aca="false">M4</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <f aca="false">H5+(C5-1)*I5</f>
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="n">
+        <f aca="false">I5*E5</f>
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <f aca="false">J5+((C5-1)/2-D5)*I5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="n">
+        <f aca="false">G5</f>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B6+2*D6-F6*(C6-1)-1)/E6 + 1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <f aca="false">K5</f>
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <f aca="false">L5</f>
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <f aca="false">M5</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <f aca="false">H6+(C6-1)*I6</f>
+        <v>46</v>
+      </c>
+      <c r="L6" s="1" t="n">
+        <f aca="false">I6*E6</f>
+        <v>16</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <f aca="false">J6+((C6-1)/2-D6)*I6</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="n">
+        <f aca="false">G6</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B7+2*D7-F7*(C7-1)-1)/E7 + 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">K6</f>
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <f aca="false">L6</f>
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <f aca="false">M6</f>
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <f aca="false">H7+(C7-1)*I7</f>
+        <v>94</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <f aca="false">I7*E7</f>
+        <v>32</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <f aca="false">J7+((C7-1)/2-D7)*I7</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B11+2*D11-F11*(C11-1)-1)/E11 + 1,0)</f>
+        <v>30</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <f aca="false">H11+(C11-1)*I11</f>
+        <v>8</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <f aca="false">I11*E11</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <f aca="false">J11+((C11-1)/2-D11)*I11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="n">
+        <f aca="false">G11</f>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B12+2*D12-F12*(C12-1)-1)/E12 + 1,0)</f>
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <f aca="false">K11</f>
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <f aca="false">L11</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <f aca="false">M11</f>
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <f aca="false">H12+(C12-1)*I12</f>
+        <v>22</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <f aca="false">I12*E12</f>
+        <v>4</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <f aca="false">J12+((C12-1)/2-D12)*I12</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="n">
+        <f aca="false">G12</f>
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B13+2*D13-F13*(C13-1)-1)/E13 + 1,0)</f>
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">K12</f>
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <f aca="false">L12</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <f aca="false">M12</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <f aca="false">H13+(C13-1)*I13</f>
+        <v>50</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <f aca="false">I13*E13</f>
+        <v>8</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <f aca="false">J13+((C13-1)/2-D13)*I13</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="n">
+        <f aca="false">G13</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B14+2*D14-F14*(C14-1)-1)/E14 + 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <f aca="false">K13</f>
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <f aca="false">L13</f>
+        <v>8</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <f aca="false">M13</f>
+        <v>18</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <f aca="false">H14+(C14-1)*I14</f>
+        <v>74</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <f aca="false">I14*E14</f>
+        <v>16</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <f aca="false">J14+((C14-1)/2-D14)*I14</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B19+2*D19-F19*(C19-1)-1)/E19 + 1,0)</f>
+        <v>36</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <f aca="false">H19+(C19-1)*I19</f>
+        <v>16</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <f aca="false">I19*E19</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <f aca="false">J19+((C19-1)/2-D19)*I19</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="n">
+        <f aca="false">G19</f>
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B20+2*D20-F20*(C20-1)-1)/E20 + 1,0)</f>
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">K19</f>
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <f aca="false">L19</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <f aca="false">M19</f>
+        <v>7</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <f aca="false">H20+(C20-1)*I20</f>
+        <v>31</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <f aca="false">I20*E20</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <f aca="false">J20+((C20-1)/2-D20)*I20</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="n">
+        <f aca="false">G20</f>
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B21+2*D21-F21*(C21-1)-1)/E21 + 1,0)</f>
+        <v>8</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">K20</f>
+        <v>31</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">L20</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <f aca="false">M20</f>
+        <v>13.5</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <f aca="false">H21+(C21-1)*I21</f>
+        <v>46</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <f aca="false">I21*E21</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <f aca="false">J21+((C21-1)/2-D21)*I21</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="n">
+        <f aca="false">G21</f>
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B22+2*D22-F22*(C22-1)-1)/E22 + 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <f aca="false">K21</f>
+        <v>46</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <f aca="false">L21</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <f aca="false">M21</f>
+        <v>21</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <f aca="false">H22+(C22-1)*I22</f>
+        <v>53</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <f aca="false">I22*E22</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <f aca="false">J22+((C22-1)/2-D22)*I22</f>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B27+2*D27-F27*(C27-1)-1)/E27 + 1,0)</f>
+        <v>21</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <f aca="false">H27+(C27-1)*I27</f>
+        <v>4</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <f aca="false">I27*E27</f>
+        <v>3</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <f aca="false">J27+((C27-1)/2-D27)*I27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="n">
+        <f aca="false">G27</f>
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B28+2*D28-F28*(C28-1)-1)/E28 + 1,0)</f>
+        <v>7</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <f aca="false">K27</f>
+        <v>4</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <f aca="false">L27</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <f aca="false">M27</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <f aca="false">H28+(C28-1)*I28</f>
+        <v>13</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <f aca="false">I28*E28</f>
+        <v>9</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <f aca="false">J28+((C28-1)/2-D28)*I28</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="n">
+        <f aca="false">G28</f>
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B29+2*D29-F29*(C29-1)-1)/E29 + 1,0)</f>
+        <v>2</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <f aca="false">K28</f>
+        <v>13</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <f aca="false">L28</f>
+        <v>9</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <f aca="false">M28</f>
+        <v>2.5</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <f aca="false">H29+(C29-1)*I29</f>
+        <v>40</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <f aca="false">I29*E29</f>
+        <v>27</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <f aca="false">J29+((C29-1)/2-D29)*I29</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="n">
+        <f aca="false">G29</f>
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B30+2*D30-F30*(C30-1)-1)/E30 + 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <f aca="false">K29</f>
+        <v>40</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <f aca="false">L29</f>
+        <v>27</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <f aca="false">M29</f>
+        <v>7</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <f aca="false">H30+(C30-1)*I30</f>
+        <v>121</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <f aca="false">I30*E30</f>
+        <v>81</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <f aca="false">J30+((C30-1)/2-D30)*I30</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B35+2*D35-F35*(C35-1)-1)/E35 + 1,0)</f>
+        <v>43</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <f aca="false">H35+(C35-1)*I35</f>
+        <v>24</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <f aca="false">I35*E35</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <f aca="false">J35+((C35-1)/2-D35)*I35</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="n">
+        <f aca="false">G35</f>
+        <v>43</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B36+2*D36-F36*(C36-1)-1)/E36 + 1,0)</f>
+        <v>22</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <f aca="false">K35</f>
+        <v>24</v>
+      </c>
+      <c r="I36" s="1" t="n">
+        <f aca="false">L35</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="1" t="n">
+        <f aca="false">M35</f>
+        <v>11</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <f aca="false">H36+(C36-1)*I36</f>
+        <v>47</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <f aca="false">I36*E36</f>
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <f aca="false">J36+((C36-1)/2-D36)*I36</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="n">
+        <f aca="false">G36</f>
+        <v>22</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B37+2*D37-F37*(C37-1)-1)/E37 + 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <f aca="false">K36</f>
+        <v>47</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <f aca="false">L36</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="1" t="n">
+        <f aca="false">M36</f>
+        <v>21.5</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <f aca="false">H37+(C37-1)*I37</f>
+        <v>70</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <f aca="false">I37*E37</f>
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <f aca="false">J37+((C37-1)/2-D37)*I37</f>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Arch.xlsx
+++ b/Arch.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t xml:space="preserve">D</t>
   </si>
@@ -211,8 +211,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="992" min="1" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="993" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="992" min="1" style="1" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1025" min="993" style="0" width="8.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -475,23 +475,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:O37"/>
+  <dimension ref="B1:O53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R41" activeCellId="0" sqref="R41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="2" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="7" min="2" style="1" width="11.5708502024291"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5708502024291"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
@@ -758,6 +763,12 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -772,6 +783,11 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1001,6 +1017,12 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1009,6 +1031,12 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1020,6 +1048,11 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1246,6 +1279,12 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1254,6 +1293,12 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1265,6 +1310,11 @@
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1491,6 +1541,12 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+      <c r="D31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1499,6 +1555,12 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+      <c r="D32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1510,6 +1572,11 @@
       <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="C33" s="0"/>
+      <c r="D33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1687,6 +1754,242 @@
       <c r="M37" s="1" t="n">
         <f aca="false">J37+((C37-1)/2-D37)*I37</f>
         <v>32</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <f aca="false">(B43-1)*E43-2*D43+C43</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="n">
+        <f aca="false">G43</f>
+        <v>4</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <f aca="false">(B44-1)*E44-2*D44+C44</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="n">
+        <f aca="false">G44</f>
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <f aca="false">(B45-1)*E45-2*D45+C45</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="n">
+        <f aca="false">G45</f>
+        <v>14</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <f aca="false">(B46-1)*E46-2*D46+C46</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B49+2*D49-F49*(C49-1)-1)/E49 + 1,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="n">
+        <f aca="false">G49</f>
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B50+2*D50-F50*(C50-1)-1)/E50 + 1,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="n">
+        <f aca="false">G50</f>
+        <v>8</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B51+2*D51-F51*(C51-1)-1)/E51 + 1,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="n">
+        <f aca="false">G51</f>
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B52+2*D52-F52*(C52-1)-1)/E52 + 1,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="n">
+        <f aca="false">G52</f>
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <f aca="false">ROUNDDOWN((B53+2*D53-F53*(C53-1)-1)/E53 + 1,0)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
